--- a/data-for-figs/Mock_Mi_vs_Hi_bowtie2blca/Mock_hi_vs_mi_seq.xlsx
+++ b/data-for-figs/Mock_Mi_vs_Hi_bowtie2blca/Mock_hi_vs_mi_seq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="460" windowWidth="24680" windowHeight="14660" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="24680" windowHeight="14620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CO1_mock_vs_actual" sheetId="61" r:id="rId1"/>
@@ -2193,14 +2193,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2620,102 +2613,102 @@
   </borders>
   <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2723,12 +2716,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2740,8 +2733,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2759,7 +2752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2774,7 +2767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2798,24 +2791,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2824,7 +2817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2832,33 +2825,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2873,7 +2866,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2887,10 +2880,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2903,89 +2896,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2997,9 +2990,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3015,13 +3008,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3030,7 +3023,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3068,7 +3061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3092,34 +3085,34 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3137,13 +3130,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3155,7 +3148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3165,8 +3158,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3174,6 +3167,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3184,7 +3189,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3203,38 +3213,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3951,11 +3944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1778583904"/>
-        <c:axId val="-1726144880"/>
+        <c:axId val="-484666064"/>
+        <c:axId val="-484657104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1778583904"/>
+        <c:axId val="-484666064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +3999,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4073,12 +4065,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1726144880"/>
+        <c:crossAx val="-484657104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1726144880"/>
+        <c:axId val="-484657104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4121,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4195,7 +4186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1778583904"/>
+        <c:crossAx val="-484666064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5100,8 +5091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5151,7 +5142,7 @@
       <c r="M2" s="107"/>
       <c r="N2" s="107"/>
     </row>
-    <row r="3" spans="1:14" s="208" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="192" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -5177,7 +5168,7 @@
       <c r="M3" s="119"/>
       <c r="N3" s="119"/>
     </row>
-    <row r="4" spans="1:14" s="208" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="192" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -5203,7 +5194,7 @@
       <c r="M4" s="119"/>
       <c r="N4" s="119"/>
     </row>
-    <row r="5" spans="1:14" s="208" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="192" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -5229,7 +5220,7 @@
       <c r="M5" s="119"/>
       <c r="N5" s="119"/>
     </row>
-    <row r="6" spans="1:14" s="208" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="192" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -5890,7 +5881,7 @@
       <c r="C31" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="D31" s="209"/>
+      <c r="D31" s="193"/>
       <c r="E31" s="183">
         <v>1.37</v>
       </c>
@@ -6111,8 +6102,8 @@
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="193"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="J40" s="127"/>
@@ -6124,18 +6115,18 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="73"/>
       <c r="B41" s="74"/>
-      <c r="C41" s="210" t="s">
+      <c r="C41" s="194" t="s">
         <v>297</v>
       </c>
-      <c r="D41" s="211">
+      <c r="D41" s="195">
         <f>SUM(D3:D40)</f>
         <v>99.999999999999929</v>
       </c>
-      <c r="E41" s="211">
+      <c r="E41" s="195">
         <f>SUM(E3:E40)</f>
         <v>98.28000000000003</v>
       </c>
-      <c r="F41" s="212">
+      <c r="F41" s="196">
         <f>SUM(F3:F40)</f>
         <v>98.71</v>
       </c>
@@ -6147,7 +6138,7 @@
       <c r="N41" s="119"/>
     </row>
     <row r="42" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A42" s="208" t="s">
+      <c r="A42" s="192" t="s">
         <v>339</v>
       </c>
       <c r="B42" s="107"/>
@@ -6167,7 +6158,7 @@
       <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="208" t="s">
+      <c r="A43" s="192" t="s">
         <v>340</v>
       </c>
       <c r="D43" s="165"/>
@@ -6185,7 +6176,7 @@
       <c r="P43" s="15"/>
     </row>
     <row r="44" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A44" s="208" t="s">
+      <c r="A44" s="192" t="s">
         <v>341</v>
       </c>
       <c r="D44" s="126"/>
@@ -6203,7 +6194,7 @@
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="208" t="s">
+      <c r="A45" s="192" t="s">
         <v>342</v>
       </c>
       <c r="J45" s="127"/>
@@ -6624,8 +6615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC103"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6643,42 +6634,42 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="37"/>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="202" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="193" t="s">
+      <c r="C2" s="202"/>
+      <c r="D2" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="195"/>
-      <c r="F2" s="194" t="s">
+      <c r="E2" s="203"/>
+      <c r="F2" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="193" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="194" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="202" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="193" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="201" t="s">
         <v>105</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
     </row>
     <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -13202,7 +13193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -13228,41 +13219,41 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="197" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="197" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="217" t="s">
+      <c r="C2" s="204" t="s">
         <v>432</v>
       </c>
-      <c r="D2" s="218"/>
-      <c r="E2" s="220" t="s">
+      <c r="D2" s="205"/>
+      <c r="E2" s="199" t="s">
         <v>433</v>
       </c>
-      <c r="F2" s="219" t="s">
+      <c r="F2" s="198" t="s">
         <v>431</v>
       </c>
-      <c r="G2" s="219" t="s">
+      <c r="G2" s="198" t="s">
         <v>344</v>
       </c>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="198" t="s">
         <v>345</v>
       </c>
-      <c r="I2" s="219" t="s">
+      <c r="I2" s="198" t="s">
         <v>346</v>
       </c>
-      <c r="J2" s="219" t="s">
+      <c r="J2" s="198" t="s">
         <v>347</v>
       </c>
-      <c r="K2" s="213" t="s">
+      <c r="K2" s="197" t="s">
         <v>348</v>
       </c>
-      <c r="L2" s="213" t="s">
+      <c r="L2" s="197" t="s">
         <v>349</v>
       </c>
-      <c r="M2" s="213" t="s">
+      <c r="M2" s="197" t="s">
         <v>350</v>
       </c>
     </row>
@@ -13273,10 +13264,10 @@
       <c r="B3" s="127" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="208" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="216"/>
+      <c r="D3" s="209"/>
       <c r="E3" s="191"/>
       <c r="F3" s="107">
         <v>5819</v>
@@ -13307,10 +13298,10 @@
       <c r="B4" s="127" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="192"/>
+      <c r="D4" s="200"/>
       <c r="E4" s="190"/>
       <c r="F4" s="107">
         <v>591</v>
@@ -13341,10 +13332,10 @@
       <c r="B5" s="127" t="s">
         <v>361</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="206" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="192"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="190"/>
       <c r="F5" s="107">
         <v>264</v>
@@ -13375,10 +13366,10 @@
       <c r="B6" s="127" t="s">
         <v>364</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="206" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="192"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="190"/>
       <c r="F6" s="107">
         <v>267</v>
@@ -13409,10 +13400,10 @@
       <c r="B7" s="127" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="C7" s="206" t="s">
         <v>368</v>
       </c>
-      <c r="D7" s="192"/>
+      <c r="D7" s="200"/>
       <c r="E7" s="190"/>
       <c r="F7" s="107">
         <v>207</v>
@@ -13443,10 +13434,10 @@
       <c r="B8" s="127" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="214" t="s">
+      <c r="C8" s="206" t="s">
         <v>371</v>
       </c>
-      <c r="D8" s="196"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="191"/>
       <c r="F8" s="107">
         <v>239</v>
@@ -14839,8 +14830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16552,42 +16543,42 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="37"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="194" t="s">
+      <c r="C2" s="203"/>
+      <c r="D2" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="194"/>
-      <c r="F2" s="193" t="s">
+      <c r="E2" s="202"/>
+      <c r="F2" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="194" t="s">
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="193" t="s">
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="194" t="s">
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="207"/>
+      <c r="Y2" s="207"/>
       <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -20605,24 +20596,24 @@
       <c r="A2" s="102"/>
       <c r="B2" s="179"/>
       <c r="C2" s="151"/>
-      <c r="D2" s="197" t="s">
+      <c r="D2" s="210" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200" t="s">
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="213" t="s">
         <v>295</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="200" t="s">
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="213" t="s">
         <v>296</v>
       </c>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -21670,54 +21661,54 @@
     </row>
     <row r="2" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="102"/>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="219" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="204" t="s">
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="217" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="206" t="s">
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="219" t="s">
         <v>248</v>
       </c>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="204" t="s">
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="217" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="204"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="206" t="s">
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="219" t="s">
         <v>252</v>
       </c>
-      <c r="S2" s="204"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="203" t="s">
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="216" t="s">
         <v>253</v>
       </c>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="203" t="s">
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="216" t="s">
         <v>250</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="217"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="216" t="s">
         <v>251</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218"/>
     </row>
     <row r="3" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
@@ -25838,24 +25829,24 @@
       <c r="A2" s="152"/>
       <c r="B2" s="179"/>
       <c r="C2" s="151"/>
-      <c r="D2" s="197" t="s">
+      <c r="D2" s="210" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200" t="s">
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="213" t="s">
         <v>295</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="200" t="s">
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="213" t="s">
         <v>296</v>
       </c>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="36" thickBot="1" x14ac:dyDescent="0.25">
@@ -26821,54 +26812,54 @@
     </row>
     <row r="2" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="102"/>
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="217" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="206" t="s">
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="219" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="204" t="s">
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="217" t="s">
         <v>248</v>
       </c>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="206" t="s">
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="219" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="204"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="206" t="s">
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="219" t="s">
         <v>252</v>
       </c>
-      <c r="S2" s="204"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="204" t="s">
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="217" t="s">
         <v>253</v>
       </c>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="206" t="s">
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="219" t="s">
         <v>250</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="207"/>
-      <c r="AD2" s="204" t="s">
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="217"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="217" t="s">
         <v>251</v>
       </c>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218"/>
     </row>
     <row r="3" spans="1:33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
